--- a/Generative AI answers/GenAI answers.xlsx
+++ b/Generative AI answers/GenAI answers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salme\Desktop\B.Sc in information system\שנה 2 סמסטר ,ב\סמינר\קבצים להגשה\קבצי_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17243F-846B-4561-AE54-203CC6C8A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CADB5B-61FF-459A-86EE-924ADE86E399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68465573-55BF-4885-B012-7DBA6664578B}"/>
   </bookViews>
@@ -5058,7 +5058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0702E3F4-55AE-4C42-A469-5E0145AE1803}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
